--- a/src/test/resources/testData/FacultyDetailsCreatedByInstitute.xlsx
+++ b/src/test/resources/testData/FacultyDetailsCreatedByInstitute.xlsx
@@ -149,12 +149,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,77 +182,77 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.31"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>8956895689</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
